--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SIST-UNI\ORACLE\SISTUNI-ORACLE-ADM-002\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EGCC\SISTUNI-ORACLE-ADM-002\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
   <si>
     <t>NRO</t>
   </si>
@@ -506,7 +506,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,7 +547,9 @@
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
@@ -561,7 +563,9 @@
       <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
@@ -575,7 +579,9 @@
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
@@ -589,7 +595,9 @@
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
@@ -603,7 +611,9 @@
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
@@ -617,7 +627,9 @@
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
@@ -631,7 +643,9 @@
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
@@ -645,7 +659,9 @@
       <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
@@ -659,7 +675,9 @@
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
@@ -673,7 +691,9 @@
       <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
@@ -687,7 +707,9 @@
       <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
@@ -701,7 +723,9 @@
       <c r="C13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="8" t="s">
@@ -718,7 +742,9 @@
       <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
@@ -732,7 +758,9 @@
       <c r="C15" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
     </row>
@@ -746,7 +774,9 @@
       <c r="C16" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
     </row>
@@ -760,7 +790,9 @@
       <c r="C17" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
     </row>

--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="25">
   <si>
     <t>NRO</t>
   </si>
@@ -506,7 +506,10 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,7 +585,9 @@
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -598,7 +603,9 @@
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -614,7 +621,9 @@
       <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -630,7 +639,9 @@
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -646,7 +657,9 @@
       <c r="D8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -662,7 +675,9 @@
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -710,7 +725,9 @@
       <c r="D12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -745,7 +762,9 @@
       <c r="D14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -761,7 +780,9 @@
       <c r="D15" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -777,7 +798,9 @@
       <c r="D16" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="10"/>
+      <c r="E16" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -793,7 +816,9 @@
       <c r="D17" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="10"/>
+      <c r="E17" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="F17" s="10"/>
     </row>
   </sheetData>

--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="25">
   <si>
     <t>NRO</t>
   </si>
@@ -506,10 +506,10 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,7 +570,9 @@
         <v>6</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -588,7 +590,9 @@
       <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -606,7 +610,9 @@
       <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -624,7 +630,9 @@
       <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -642,7 +650,9 @@
       <c r="E7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -660,7 +670,9 @@
       <c r="E8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -678,7 +690,9 @@
       <c r="E9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -694,7 +708,9 @@
         <v>6</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -710,7 +726,9 @@
         <v>6</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -728,7 +746,9 @@
       <c r="E12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
@@ -744,7 +764,9 @@
         <v>6</v>
       </c>
       <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="G13" s="8" t="s">
         <v>7</v>
       </c>
@@ -765,7 +787,9 @@
       <c r="E14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -819,7 +843,9 @@
       <c r="E17" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="10"/>
+      <c r="F17" s="10" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EGCC\SISTUNI-ORACLE-ADM-002\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SISTUNI-ORACLE-ADM-002\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="ASISTENCIA" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ASISTENCIA!$A$1:$F$27</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="34">
   <si>
     <t>NRO</t>
   </si>
@@ -99,13 +102,40 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>[S1-ADBDS] ADMINISTRACIÓN DE BASE DE DATOS</t>
+  </si>
+  <si>
+    <t>CICLO</t>
+  </si>
+  <si>
+    <t>F. INICIO</t>
+  </si>
+  <si>
+    <t>F. FIN</t>
+  </si>
+  <si>
+    <t>HORARIO</t>
+  </si>
+  <si>
+    <t> 02/02/2019</t>
+  </si>
+  <si>
+    <t>PROFESOR</t>
+  </si>
+  <si>
+    <t>CORONEL CASTILLO ERIC GUSTAVO</t>
+  </si>
+  <si>
+    <t>Sa 08:00-14:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +158,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF868BA1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF868BA1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="2" tint="-0.749992370372631"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -143,7 +209,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.249977111117893"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -181,11 +247,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -215,15 +282,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Énfasis5" xfId="1" builtinId="45"/>
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -237,6 +326,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1447800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1001995</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285751" y="104775"/>
+          <a:ext cx="1924049" cy="897220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -503,352 +641,415 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F27" sqref="A1:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="2" width="43.42578125" customWidth="1"/>
-    <col min="3" max="6" width="11.42578125" style="1"/>
+    <col min="3" max="6" width="14.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="59.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="10">
+        <v>201902</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="17">
+        <v>43526</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B8" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C8" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F8" s="18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="C10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="C15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="C16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="C17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="C19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="8" t="s">
+      <c r="C20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="C21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B22" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="C22" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B23" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="C23" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B24" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="10" t="s">
+      <c r="C24" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="10" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" display="http://www.sistemasuni.edu.pe/WebProfesor/Cursos/ActaNotas?CicCod=201902&amp;CurSec=S1&amp;CurCod=ADBDS&amp;Anno=2019"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -135,7 +135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +190,13 @@
       <b/>
       <sz val="11"/>
       <color theme="2" tint="-0.749992370372631"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -252,7 +259,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -282,32 +289,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -339,7 +349,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1447800</xdr:colOff>
+      <xdr:colOff>1800225</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1001995</xdr:rowOff>
     </xdr:to>
@@ -640,91 +650,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1"/>
+  <sheetPr codeName="Hoja1">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F27" sqref="A1:F27"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="43.42578125" customWidth="1"/>
-    <col min="3" max="6" width="14.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="59.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" customWidth="1"/>
+    <col min="3" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="19" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="10">
+      <c r="B6" s="18"/>
+      <c r="C6" s="19">
         <v>201902</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="20">
         <v>43526</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="19" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="15" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1048,8 +1060,8 @@
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" display="http://www.sistemasuni.edu.pe/WebProfesor/Cursos/ActaNotas?CicCod=201902&amp;CurSec=S1&amp;CurCod=ADBDS&amp;Anno=2019"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>